--- a/src/student_scores.xlsx
+++ b/src/student_scores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Venkatesh\Desktop\Student-Report-Card-Generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Venkatesh\Desktop\Student-Report-Card-Generator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19595CC-170F-448A-B266-B4582173E4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404D1858-88D4-4B2E-BB9C-4559855CA9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84F74186-56CF-4094-B18D-01916D1C97B6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>USN</t>
   </si>
@@ -48,9 +48,6 @@
     <t>CS001</t>
   </si>
   <si>
-    <t>ARUN</t>
-  </si>
-  <si>
     <t>BMATS101</t>
   </si>
   <si>
@@ -61,6 +58,57 @@
   </si>
   <si>
     <t>BCS104</t>
+  </si>
+  <si>
+    <t>CS002</t>
+  </si>
+  <si>
+    <t>CS003</t>
+  </si>
+  <si>
+    <t>CS004</t>
+  </si>
+  <si>
+    <t>CS005</t>
+  </si>
+  <si>
+    <t>CS006</t>
+  </si>
+  <si>
+    <t>CS007</t>
+  </si>
+  <si>
+    <t>CS008</t>
+  </si>
+  <si>
+    <t>CS009</t>
+  </si>
+  <si>
+    <t>ARUN KUMAR</t>
+  </si>
+  <si>
+    <t>Arnav Mehra</t>
+  </si>
+  <si>
+    <t>Arjan Verma</t>
+  </si>
+  <si>
+    <t>Deepak Chatterjee</t>
+  </si>
+  <si>
+    <t>Varuni Sharma</t>
+  </si>
+  <si>
+    <t>Samyra Malik</t>
+  </si>
+  <si>
+    <t>Harsha K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rakshitha </t>
+  </si>
+  <si>
+    <t>Tanisha Vriti</t>
   </si>
 </sst>
 </file>
@@ -418,13 +466,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E074CC5-FFF0-446D-966A-A91DE6AA70A9}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -437,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -457,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>40</v>
@@ -470,6 +521,222 @@
       </c>
       <c r="G2">
         <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <f ca="1">RANDBETWEEN(13,50)</f>
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:G10" ca="1" si="0">RANDBETWEEN(15,50)</f>
+        <v>46</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D10" ca="1" si="1">RANDBETWEEN(15,50)</f>
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
